--- a/data/trans_orig/IP19C09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19C09-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FF6F3C4-9A1A-4830-808B-89DBC70657BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E39A3F17-1574-494C-94C1-62B63527EE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{5CA7A815-0E31-4402-B28F-9C64B0C6460D}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{5C4B16C7-0950-4156-AD02-F3D25FED2306}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -133,6 +133,57 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -190,57 +241,6 @@
     <t>3,24%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
     <t>96,93%</t>
   </si>
   <si>
@@ -340,6 +340,48 @@
     <t>16,28%</t>
   </si>
   <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
     <t>99,08%</t>
   </si>
   <si>
@@ -394,48 +436,6 @@
     <t>2,16%</t>
   </si>
   <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
     <t>98,18%</t>
   </si>
   <si>
@@ -526,6 +526,60 @@
     <t>19,5%</t>
   </si>
   <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
     <t>98,31%</t>
   </si>
   <si>
@@ -560,60 +614,6 @@
   </si>
   <si>
     <t>0,84%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
   </si>
   <si>
     <t>97,58%</t>
@@ -1053,7 +1053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B37C0389-5715-4EEC-912E-208F473F06A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADC02F6-7827-460A-A556-27AA7194B486}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1326,10 +1326,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>335</v>
+        <v>166</v>
       </c>
       <c r="D7" s="7">
-        <v>224411</v>
+        <v>109101</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1341,10 +1341,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>326</v>
+        <v>155</v>
       </c>
       <c r="I7" s="7">
-        <v>219916</v>
+        <v>104470</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1353,22 +1353,22 @@
         <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="7">
+        <v>321</v>
+      </c>
+      <c r="N7" s="7">
+        <v>213571</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="7">
-        <v>661</v>
-      </c>
-      <c r="N7" s="7">
-        <v>444327</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1377,49 +1377,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>5969</v>
+        <v>2615</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1600</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="7">
-        <v>4</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2714</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>6</v>
+      </c>
+      <c r="N8" s="7">
+        <v>4215</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="7">
-        <v>13</v>
-      </c>
-      <c r="N8" s="7">
-        <v>8683</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1428,10 +1428,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>344</v>
+        <v>170</v>
       </c>
       <c r="D9" s="7">
-        <v>230380</v>
+        <v>111716</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1443,10 +1443,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>330</v>
+        <v>157</v>
       </c>
       <c r="I9" s="7">
-        <v>222630</v>
+        <v>106070</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1458,10 +1458,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>674</v>
+        <v>327</v>
       </c>
       <c r="N9" s="7">
-        <v>453010</v>
+        <v>217786</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1475,55 +1475,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>166</v>
+        <v>335</v>
       </c>
       <c r="D10" s="7">
-        <v>109101</v>
+        <v>224411</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>326</v>
+      </c>
+      <c r="I10" s="7">
+        <v>219916</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>155</v>
-      </c>
-      <c r="I10" s="7">
-        <v>104470</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>661</v>
+      </c>
+      <c r="N10" s="7">
+        <v>444327</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="7">
-        <v>321</v>
-      </c>
-      <c r="N10" s="7">
-        <v>213571</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1532,40 +1532,40 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>9</v>
+      </c>
+      <c r="D11" s="7">
+        <v>5969</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="7">
         <v>4</v>
       </c>
-      <c r="D11" s="7">
-        <v>2615</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>2714</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1600</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N11" s="7">
-        <v>4215</v>
+        <v>8683</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>64</v>
@@ -1583,10 +1583,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>170</v>
+        <v>344</v>
       </c>
       <c r="D12" s="7">
-        <v>111716</v>
+        <v>230380</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1598,10 +1598,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>157</v>
+        <v>330</v>
       </c>
       <c r="I12" s="7">
-        <v>106070</v>
+        <v>222630</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1613,10 +1613,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>327</v>
+        <v>674</v>
       </c>
       <c r="N12" s="7">
-        <v>217786</v>
+        <v>453010</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1799,7 +1799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3986A972-B07E-4D56-B942-4FD60918CC4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1D6673-8EE3-422A-8E89-D9DADFEBE0CA}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2072,10 +2072,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>317</v>
+        <v>173</v>
       </c>
       <c r="D7" s="7">
-        <v>214312</v>
+        <v>126540</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>100</v>
@@ -2087,34 +2087,34 @@
         <v>102</v>
       </c>
       <c r="H7" s="7">
-        <v>294</v>
+        <v>169</v>
       </c>
       <c r="I7" s="7">
-        <v>205662</v>
+        <v>120654</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="7">
+        <v>342</v>
+      </c>
+      <c r="N7" s="7">
+        <v>247193</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="M7" s="7">
-        <v>611</v>
-      </c>
-      <c r="N7" s="7">
-        <v>419974</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2123,49 +2123,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>1994</v>
+        <v>3935</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1697</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H8" s="7">
-        <v>4</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2748</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
       </c>
       <c r="N8" s="7">
-        <v>4742</v>
+        <v>5632</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2174,10 +2174,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>320</v>
+        <v>178</v>
       </c>
       <c r="D9" s="7">
-        <v>216306</v>
+        <v>130475</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2189,10 +2189,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>298</v>
+        <v>171</v>
       </c>
       <c r="I9" s="7">
-        <v>208410</v>
+        <v>122351</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2204,10 +2204,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>618</v>
+        <v>349</v>
       </c>
       <c r="N9" s="7">
-        <v>424716</v>
+        <v>252825</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2221,55 +2221,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>173</v>
+        <v>317</v>
       </c>
       <c r="D10" s="7">
-        <v>126540</v>
+        <v>214312</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" s="7">
+        <v>294</v>
+      </c>
+      <c r="I10" s="7">
+        <v>205662</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>611</v>
+      </c>
+      <c r="N10" s="7">
+        <v>419974</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H10" s="7">
-        <v>169</v>
-      </c>
-      <c r="I10" s="7">
-        <v>120654</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="7">
-        <v>342</v>
-      </c>
-      <c r="N10" s="7">
-        <v>247193</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,31 +2278,31 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>3935</v>
+        <v>1994</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>4</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2748</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1697</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>128</v>
@@ -2311,7 +2311,7 @@
         <v>7</v>
       </c>
       <c r="N11" s="7">
-        <v>5632</v>
+        <v>4742</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>129</v>
@@ -2329,10 +2329,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>178</v>
+        <v>320</v>
       </c>
       <c r="D12" s="7">
-        <v>130475</v>
+        <v>216306</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2344,10 +2344,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>171</v>
+        <v>298</v>
       </c>
       <c r="I12" s="7">
-        <v>122351</v>
+        <v>208410</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2359,10 +2359,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>349</v>
+        <v>618</v>
       </c>
       <c r="N12" s="7">
-        <v>252825</v>
+        <v>424716</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2545,7 +2545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1A655E-1961-4639-9CD5-CD030789047D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{888CB120-4286-476A-BA08-500F25733CD0}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2818,10 +2818,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>286</v>
+        <v>182</v>
       </c>
       <c r="D7" s="7">
-        <v>211839</v>
+        <v>127378</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>162</v>
@@ -2833,34 +2833,34 @@
         <v>164</v>
       </c>
       <c r="H7" s="7">
-        <v>294</v>
+        <v>181</v>
       </c>
       <c r="I7" s="7">
-        <v>208624</v>
+        <v>119085</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M7" s="7">
-        <v>580</v>
+        <v>363</v>
       </c>
       <c r="N7" s="7">
-        <v>420464</v>
+        <v>246463</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2872,46 +2872,46 @@
         <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>3631</v>
+        <v>3687</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I8" s="7">
-        <v>3579</v>
+        <v>5263</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M8" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N8" s="7">
-        <v>7209</v>
+        <v>8950</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>125</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,10 +2920,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>291</v>
+        <v>187</v>
       </c>
       <c r="D9" s="7">
-        <v>215470</v>
+        <v>131065</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2935,10 +2935,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>299</v>
+        <v>188</v>
       </c>
       <c r="I9" s="7">
-        <v>212203</v>
+        <v>124348</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2950,10 +2950,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>590</v>
+        <v>375</v>
       </c>
       <c r="N9" s="7">
-        <v>427673</v>
+        <v>255413</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2967,55 +2967,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>286</v>
+      </c>
+      <c r="D10" s="7">
+        <v>211839</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D10" s="7">
-        <v>127378</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>176</v>
-      </c>
       <c r="H10" s="7">
-        <v>181</v>
+        <v>294</v>
       </c>
       <c r="I10" s="7">
-        <v>119085</v>
+        <v>208624</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M10" s="7">
-        <v>363</v>
+        <v>580</v>
       </c>
       <c r="N10" s="7">
-        <v>246463</v>
+        <v>420464</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>180</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3027,46 +3027,46 @@
         <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>3687</v>
+        <v>3631</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H11" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I11" s="7">
-        <v>5263</v>
+        <v>3579</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>186</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M11" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N11" s="7">
-        <v>8950</v>
+        <v>7209</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>191</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,10 +3075,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>187</v>
+        <v>291</v>
       </c>
       <c r="D12" s="7">
-        <v>131065</v>
+        <v>215470</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3090,10 +3090,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>188</v>
+        <v>299</v>
       </c>
       <c r="I12" s="7">
-        <v>124348</v>
+        <v>212203</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3105,10 +3105,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>375</v>
+        <v>590</v>
       </c>
       <c r="N12" s="7">
-        <v>255413</v>
+        <v>427673</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3140,7 +3140,7 @@
         <v>193</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="H13" s="7">
         <v>492</v>
@@ -3188,7 +3188,7 @@
         <v>200</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>201</v>

--- a/data/trans_orig/IP19C09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19C09-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E39A3F17-1574-494C-94C1-62B63527EE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1527A217-F89C-4377-871D-30E61F94BF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{5C4B16C7-0950-4156-AD02-F3D25FED2306}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{32EF8765-6732-4AC9-9A95-E79ED2B94109}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="222">
   <si>
     <t>Menores según su última visita al dentista fue por otro motivo en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -67,601 +67,643 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
+    <t>55,59%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>97,41%</t>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
   </si>
   <si>
     <t>95,36%</t>
   </si>
   <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
+    <t>98,3%</t>
   </si>
   <si>
     <t>98,61%</t>
   </si>
   <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
   </si>
   <si>
     <t>97,76%</t>
   </si>
   <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según su última visita al dentista fue por otro motivo en 2012 (Tasa respuesta: 48,12%)</t>
   </si>
   <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por otro motivo en 2015 (Tasa respuesta: 46,9%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
   </si>
   <si>
     <t>95,09%</t>
   </si>
   <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
+    <t>91,14%</t>
   </si>
   <si>
     <t>97,84%</t>
   </si>
   <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por otro motivo en 2015 (Tasa respuesta: 46,9%)</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
   </si>
   <si>
     <t>97,58%</t>
   </si>
   <si>
-    <t>95,89%</t>
+    <t>98,76%</t>
   </si>
   <si>
     <t>97,45%</t>
   </si>
   <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
   </si>
   <si>
     <t>97,52%</t>
   </si>
   <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
+    <t>96,4%</t>
   </si>
 </sst>
 </file>
@@ -672,7 +714,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -768,39 +810,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -852,7 +894,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -963,13 +1005,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -978,6 +1013,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1042,19 +1084,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADC02F6-7827-460A-A556-27AA7194B486}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2205D0-C23C-4C49-BDC1-2B9233C88A38}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1171,10 +1233,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>17130</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1186,85 +1248,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>21650</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>61</v>
-      </c>
-      <c r="N4" s="7">
-        <v>38780</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1893</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>6</v>
+      </c>
+      <c r="I5" s="7">
+        <v>3906</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>4</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2505</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>9</v>
+      </c>
+      <c r="N5" s="7">
+        <v>5799</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>580</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>5</v>
-      </c>
-      <c r="N5" s="7">
-        <v>3085</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1273,153 +1335,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>19635</v>
+        <v>1893</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="I6" s="7">
-        <v>22230</v>
+        <v>3906</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="N6" s="7">
-        <v>41865</v>
+        <v>5799</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>166</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>109101</v>
+        <v>4471</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H7" s="7">
-        <v>155</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>104470</v>
+        <v>1250</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M7" s="7">
-        <v>321</v>
+        <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>213571</v>
+        <v>5722</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="D8" s="7">
-        <v>2615</v>
+        <v>75947</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="I8" s="7">
-        <v>1600</v>
+        <v>83085</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
-        <v>6</v>
+        <v>241</v>
       </c>
       <c r="N8" s="7">
-        <v>4215</v>
+        <v>159031</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1428,153 +1490,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="D9" s="7">
-        <v>111716</v>
+        <v>80418</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="I9" s="7">
-        <v>106070</v>
+        <v>84335</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>327</v>
+        <v>250</v>
       </c>
       <c r="N9" s="7">
-        <v>217786</v>
+        <v>164753</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>335</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>224411</v>
+        <v>649</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H10" s="7">
-        <v>326</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>219916</v>
+        <v>1545</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="M10" s="7">
-        <v>661</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>444327</v>
+        <v>2194</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>9</v>
+        <v>157</v>
       </c>
       <c r="D11" s="7">
-        <v>5969</v>
+        <v>105070</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="I11" s="7">
-        <v>2714</v>
+        <v>97648</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="M11" s="7">
-        <v>13</v>
+        <v>303</v>
       </c>
       <c r="N11" s="7">
-        <v>8683</v>
+        <v>202718</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1583,153 +1645,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>344</v>
+        <v>158</v>
       </c>
       <c r="D12" s="7">
-        <v>230380</v>
+        <v>105719</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>330</v>
+        <v>148</v>
       </c>
       <c r="I12" s="7">
-        <v>222630</v>
+        <v>99193</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>674</v>
+        <v>306</v>
       </c>
       <c r="N12" s="7">
-        <v>453010</v>
+        <v>204912</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>528</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>350641</v>
+        <v>5969</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H13" s="7">
-        <v>515</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>346037</v>
+        <v>2097</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="M13" s="7">
-        <v>1043</v>
+        <v>12</v>
       </c>
       <c r="N13" s="7">
-        <v>696679</v>
+        <v>8066</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>17</v>
+        <v>252</v>
       </c>
       <c r="D14" s="7">
-        <v>11090</v>
+        <v>167732</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="H14" s="7">
-        <v>7</v>
+        <v>238</v>
       </c>
       <c r="I14" s="7">
-        <v>4893</v>
+        <v>161400</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="M14" s="7">
-        <v>24</v>
+        <v>490</v>
       </c>
       <c r="N14" s="7">
-        <v>15982</v>
+        <v>329131</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1738,55 +1800,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>261</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173701</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>241</v>
+      </c>
+      <c r="I15" s="7">
+        <v>163497</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>502</v>
+      </c>
+      <c r="N15" s="7">
+        <v>337197</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>17</v>
+      </c>
+      <c r="D16" s="7">
+        <v>11090</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="7">
+        <v>7</v>
+      </c>
+      <c r="I16" s="7">
+        <v>4893</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M16" s="7">
+        <v>24</v>
+      </c>
+      <c r="N16" s="7">
+        <v>15982</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>528</v>
+      </c>
+      <c r="D17" s="7">
+        <v>350641</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="7">
+        <v>515</v>
+      </c>
+      <c r="I17" s="7">
+        <v>346037</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1043</v>
+      </c>
+      <c r="N17" s="7">
+        <v>696679</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>545</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>361731</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>522</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>350930</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>1067</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>712661</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1799,8 +2022,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1D6673-8EE3-422A-8E89-D9DADFEBE0CA}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C266F033-42B9-445E-8B0D-E5C12CA112CB}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1816,7 +2039,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1917,100 +2140,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>13060</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="H4" s="7">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>14490</v>
+        <v>621</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="M4" s="7">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>27549</v>
+        <v>621</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>647</v>
+        <v>669</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>1203</v>
+        <v>2677</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N5" s="7">
-        <v>1850</v>
+        <v>3346</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2019,153 +2242,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>13707</v>
+        <v>669</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>15693</v>
+        <v>3298</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="N6" s="7">
-        <v>29399</v>
+        <v>3967</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>173</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>126540</v>
+        <v>2862</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H7" s="7">
-        <v>169</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>120654</v>
+        <v>2279</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="M7" s="7">
-        <v>342</v>
+        <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>247193</v>
+        <v>5141</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="D8" s="7">
-        <v>3935</v>
+        <v>86998</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="I8" s="7">
-        <v>1697</v>
+        <v>73309</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
-        <v>7</v>
+        <v>221</v>
       </c>
       <c r="N8" s="7">
-        <v>5632</v>
+        <v>160307</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2174,153 +2397,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="D9" s="7">
-        <v>130475</v>
+        <v>89860</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="I9" s="7">
-        <v>122351</v>
+        <v>75588</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>349</v>
+        <v>228</v>
       </c>
       <c r="N9" s="7">
-        <v>252825</v>
+        <v>165448</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>317</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>214312</v>
+        <v>2345</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
-        <v>294</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>205662</v>
+        <v>665</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="M10" s="7">
-        <v>611</v>
+        <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>419974</v>
+        <v>3011</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>186</v>
       </c>
       <c r="D11" s="7">
-        <v>1994</v>
+        <v>128630</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>175</v>
       </c>
       <c r="I11" s="7">
-        <v>2748</v>
+        <v>123089</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="M11" s="7">
-        <v>7</v>
+        <v>361</v>
       </c>
       <c r="N11" s="7">
-        <v>4742</v>
+        <v>251719</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,129 +2552,129 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>320</v>
+        <v>189</v>
       </c>
       <c r="D12" s="7">
-        <v>216306</v>
+        <v>130975</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>298</v>
+        <v>176</v>
       </c>
       <c r="I12" s="7">
-        <v>208410</v>
+        <v>123754</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>618</v>
+        <v>365</v>
       </c>
       <c r="N12" s="7">
-        <v>424716</v>
+        <v>254730</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>508</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>353911</v>
+        <v>1369</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H13" s="7">
-        <v>485</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>340805</v>
+        <v>2083</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M13" s="7">
-        <v>993</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>694716</v>
+        <v>3452</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>138</v>
+        <v>62</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>9</v>
+        <v>204</v>
       </c>
       <c r="D14" s="7">
-        <v>6576</v>
+        <v>137614</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="H14" s="7">
-        <v>8</v>
+        <v>202</v>
       </c>
       <c r="I14" s="7">
-        <v>5648</v>
+        <v>141730</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>144</v>
@@ -2463,19 +2686,19 @@
         <v>146</v>
       </c>
       <c r="M14" s="7">
-        <v>17</v>
+        <v>406</v>
       </c>
       <c r="N14" s="7">
-        <v>12224</v>
+        <v>279344</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,55 +2707,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>206</v>
+      </c>
+      <c r="D15" s="7">
+        <v>138983</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>205</v>
+      </c>
+      <c r="I15" s="7">
+        <v>143813</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>411</v>
+      </c>
+      <c r="N15" s="7">
+        <v>282796</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>9</v>
+      </c>
+      <c r="D16" s="7">
+        <v>6576</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="7">
+        <v>8</v>
+      </c>
+      <c r="I16" s="7">
+        <v>5648</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M16" s="7">
+        <v>17</v>
+      </c>
+      <c r="N16" s="7">
+        <v>12224</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>508</v>
+      </c>
+      <c r="D17" s="7">
+        <v>353911</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="7">
+        <v>485</v>
+      </c>
+      <c r="I17" s="7">
+        <v>340805</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M17" s="7">
+        <v>993</v>
+      </c>
+      <c r="N17" s="7">
+        <v>694716</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>517</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>360487</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>493</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>346453</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>1010</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>706940</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2545,8 +2929,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{888CB120-4286-476A-BA08-500F25733CD0}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2270C8-1B3D-4DAF-B461-9D3C6140633E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2562,7 +2946,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2663,100 +3047,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" s="7">
-        <v>8444</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="7">
-        <v>17</v>
-      </c>
-      <c r="I4" s="7">
-        <v>10631</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="7">
-        <v>30</v>
-      </c>
-      <c r="N4" s="7">
-        <v>19075</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>1299</v>
+        <v>1284</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>1299</v>
+        <v>1819</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2765,153 +3149,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>9743</v>
+        <v>1284</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>10631</v>
+        <v>536</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>20374</v>
+        <v>1819</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>182</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>127378</v>
+        <v>4360</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
-        <v>181</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>119085</v>
+        <v>2771</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
-        <v>363</v>
+        <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>246463</v>
+        <v>7131</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="D8" s="7">
-        <v>3687</v>
+        <v>75876</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="I8" s="7">
-        <v>5263</v>
+        <v>62361</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="N8" s="7">
-        <v>8950</v>
+        <v>138237</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,153 +3304,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>187</v>
+        <v>115</v>
       </c>
       <c r="D9" s="7">
-        <v>131065</v>
+        <v>80236</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>188</v>
+        <v>100</v>
       </c>
       <c r="I9" s="7">
-        <v>124348</v>
+        <v>65132</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>375</v>
+        <v>215</v>
       </c>
       <c r="N9" s="7">
-        <v>255413</v>
+        <v>145368</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>286</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>211839</v>
+        <v>1365</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H10" s="7">
+        <v>7</v>
+      </c>
+      <c r="I10" s="7">
+        <v>4590</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="M10" s="7">
+        <v>9</v>
+      </c>
+      <c r="N10" s="7">
+        <v>5955</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H10" s="7">
-        <v>294</v>
-      </c>
-      <c r="I10" s="7">
-        <v>208624</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="M10" s="7">
-        <v>580</v>
-      </c>
-      <c r="N10" s="7">
-        <v>420464</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>197</v>
       </c>
       <c r="D11" s="7">
-        <v>3631</v>
+        <v>142300</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>188</v>
+        <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>198</v>
       </c>
       <c r="I11" s="7">
-        <v>3579</v>
+        <v>138615</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="M11" s="7">
+        <v>395</v>
+      </c>
+      <c r="N11" s="7">
+        <v>280915</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M11" s="7">
-        <v>10</v>
-      </c>
-      <c r="N11" s="7">
-        <v>7209</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,153 +3459,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>291</v>
+        <v>199</v>
       </c>
       <c r="D12" s="7">
-        <v>215470</v>
+        <v>143665</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>299</v>
+        <v>205</v>
       </c>
       <c r="I12" s="7">
-        <v>212203</v>
+        <v>143205</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>590</v>
+        <v>404</v>
       </c>
       <c r="N12" s="7">
-        <v>427673</v>
+        <v>286870</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>481</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>347662</v>
+        <v>2892</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>52</v>
+        <v>198</v>
       </c>
       <c r="H13" s="7">
-        <v>492</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>338340</v>
+        <v>1481</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>194</v>
+        <v>44</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
-        <v>973</v>
+        <v>6</v>
       </c>
       <c r="N13" s="7">
-        <v>686002</v>
+        <v>4372</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>198</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="D14" s="7">
-        <v>8616</v>
+        <v>128201</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>61</v>
+        <v>203</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H14" s="7">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="I14" s="7">
-        <v>8842</v>
+        <v>136828</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>202</v>
+        <v>51</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="7">
+        <v>369</v>
+      </c>
+      <c r="N14" s="7">
+        <v>265030</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="M14" s="7">
-        <v>24</v>
-      </c>
-      <c r="N14" s="7">
-        <v>17458</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,55 +3614,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>177</v>
+      </c>
+      <c r="D15" s="7">
+        <v>131093</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>198</v>
+      </c>
+      <c r="I15" s="7">
+        <v>138309</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>375</v>
+      </c>
+      <c r="N15" s="7">
+        <v>269402</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>12</v>
+      </c>
+      <c r="D16" s="7">
+        <v>8616</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H16" s="7">
+        <v>12</v>
+      </c>
+      <c r="I16" s="7">
+        <v>8842</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="M16" s="7">
+        <v>24</v>
+      </c>
+      <c r="N16" s="7">
+        <v>17458</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>481</v>
+      </c>
+      <c r="D17" s="7">
+        <v>347662</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H17" s="7">
+        <v>492</v>
+      </c>
+      <c r="I17" s="7">
+        <v>338340</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M17" s="7">
+        <v>973</v>
+      </c>
+      <c r="N17" s="7">
+        <v>686002</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>493</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>356278</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>504</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>347182</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>997</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>703460</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP19C09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19C09-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1527A217-F89C-4377-871D-30E61F94BF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51D21CA2-59C1-4388-A2D9-C2E2F38AF99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{32EF8765-6732-4AC9-9A95-E79ED2B94109}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D2DF3057-A446-4C91-BB08-789BFD54BC1B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="226">
   <si>
     <t>Menores según su última visita al dentista fue por otro motivo en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -112,598 +112,610 @@
     <t>5,56%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
   </si>
   <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>5,45%</t>
+    <t>4,56%</t>
   </si>
   <si>
     <t>3,47%</t>
   </si>
   <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por otro motivo en 2012 (Tasa respuesta: 48,12%)</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por otro motivo en 2016 (Tasa respuesta: 46,9%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
   </si>
   <si>
     <t>98,45%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por otro motivo en 2012 (Tasa respuesta: 48,12%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por otro motivo en 2015 (Tasa respuesta: 46,9%)</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2205D0-C23C-4C49-BDC1-2B9233C88A38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318AA136-801C-41C2-9594-A43CE322BD00}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1880,7 +1892,7 @@
         <v>77</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -1889,13 +1901,13 @@
         <v>15982</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1910,13 +1922,13 @@
         <v>350641</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>515</v>
@@ -1925,13 +1937,13 @@
         <v>346037</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M17" s="7">
         <v>1043</v>
@@ -1940,13 +1952,13 @@
         <v>696679</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2002,7 +2014,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2022,7 +2034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C266F033-42B9-445E-8B0D-E5C12CA112CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF6FD9D-5A5F-48A4-BFB9-85F9CF3D4B97}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2039,7 +2051,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2152,7 +2164,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2161,13 +2173,13 @@
         <v>621</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2176,13 +2188,13 @@
         <v>621</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2200,7 +2212,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2212,10 +2224,10 @@
         <v>2677</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -2227,10 +2239,10 @@
         <v>3346</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -2301,13 +2313,13 @@
         <v>2862</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -2316,13 +2328,13 @@
         <v>2279</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -2331,13 +2343,13 @@
         <v>5141</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2352,13 +2364,13 @@
         <v>86998</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H8" s="7">
         <v>104</v>
@@ -2367,13 +2379,13 @@
         <v>73309</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M8" s="7">
         <v>221</v>
@@ -2382,13 +2394,13 @@
         <v>160307</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2456,13 +2468,13 @@
         <v>2345</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2471,13 +2483,13 @@
         <v>665</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -2486,13 +2498,13 @@
         <v>3011</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2507,13 +2519,13 @@
         <v>128630</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H11" s="7">
         <v>175</v>
@@ -2522,10 +2534,10 @@
         <v>123089</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -2534,16 +2546,16 @@
         <v>361</v>
       </c>
       <c r="N11" s="7">
-        <v>251719</v>
+        <v>251718</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,7 +2597,7 @@
         <v>365</v>
       </c>
       <c r="N12" s="7">
-        <v>254730</v>
+        <v>254729</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -2611,13 +2623,13 @@
         <v>1369</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -2626,13 +2638,13 @@
         <v>2083</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -2641,13 +2653,13 @@
         <v>3452</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2662,10 +2674,10 @@
         <v>137614</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -2677,13 +2689,13 @@
         <v>141730</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M14" s="7">
         <v>406</v>
@@ -2692,13 +2704,13 @@
         <v>279344</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2766,13 +2778,13 @@
         <v>6576</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>104</v>
+        <v>146</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -2781,13 +2793,13 @@
         <v>5648</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -2796,13 +2808,13 @@
         <v>12224</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2817,13 +2829,13 @@
         <v>353911</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="H17" s="7">
         <v>485</v>
@@ -2832,13 +2844,13 @@
         <v>340805</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M17" s="7">
         <v>993</v>
@@ -2847,13 +2859,13 @@
         <v>694716</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,7 +2921,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2929,7 +2941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2270C8-1B3D-4DAF-B461-9D3C6140633E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37D2B78-4DDE-40D2-8AB3-3A3298055DBA}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2946,7 +2958,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3059,7 +3071,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3074,7 +3086,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3107,7 +3119,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3122,7 +3134,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3208,13 +3220,13 @@
         <v>4360</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -3223,13 +3235,13 @@
         <v>2771</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -3238,13 +3250,13 @@
         <v>7131</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,13 +3271,13 @@
         <v>75876</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H8" s="7">
         <v>97</v>
@@ -3274,13 +3286,13 @@
         <v>62361</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M8" s="7">
         <v>206</v>
@@ -3289,13 +3301,13 @@
         <v>138237</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3363,13 +3375,13 @@
         <v>1365</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -3378,13 +3390,13 @@
         <v>4590</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -3393,13 +3405,13 @@
         <v>5955</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,10 +3426,10 @@
         <v>142300</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -3429,13 +3441,13 @@
         <v>138615</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M11" s="7">
         <v>395</v>
@@ -3444,13 +3456,13 @@
         <v>280915</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,13 +3530,13 @@
         <v>2892</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3539,7 +3551,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -3548,13 +3560,13 @@
         <v>4372</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3569,13 +3581,13 @@
         <v>128201</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>196</v>
@@ -3587,7 +3599,7 @@
         <v>51</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -3599,13 +3611,13 @@
         <v>265030</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,13 +3685,13 @@
         <v>8616</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -3688,13 +3700,13 @@
         <v>8842</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -3703,13 +3715,13 @@
         <v>17458</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>150</v>
+        <v>217</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3724,13 +3736,13 @@
         <v>347662</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>176</v>
+        <v>71</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H17" s="7">
         <v>492</v>
@@ -3739,13 +3751,13 @@
         <v>338340</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M17" s="7">
         <v>973</v>
@@ -3754,13 +3766,13 @@
         <v>686002</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>156</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3816,7 +3828,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP19C09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19C09-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51D21CA2-59C1-4388-A2D9-C2E2F38AF99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A852ACFC-B0B2-47EC-9C10-D3E4DB0C5D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D2DF3057-A446-4C91-BB08-789BFD54BC1B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{84F027D4-2615-422A-A037-188471B7CFF0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="228">
   <si>
     <t>Menores según su última visita al dentista fue por otro motivo en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -79,12 +79,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>26,42%</t>
+  </si>
+  <si>
     <t>44,41%</t>
   </si>
   <si>
-    <t>26,42%</t>
-  </si>
-  <si>
     <t>18,74%</t>
   </si>
   <si>
@@ -94,205 +94,202 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>55,59%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
     <t>81,26%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
     <t>5,56%</t>
   </si>
   <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
   </si>
   <si>
     <t>3,47%</t>
   </si>
   <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
     <t>1,54%</t>
   </si>
   <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
   </si>
   <si>
     <t>98,46%</t>
   </si>
   <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
     <t>97,61%</t>
   </si>
   <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>0,57%</t>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
   </si>
   <si>
     <t>2,24%</t>
   </si>
   <si>
+    <t>1,5%</t>
+  </si>
+  <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
     <t>98,61%</t>
   </si>
   <si>
-    <t>99,43%</t>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
   </si>
   <si>
     <t>97,76%</t>
@@ -301,40 +298,52 @@
     <t>96,68%</t>
   </si>
   <si>
+    <t>98,5%</t>
+  </si>
+  <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según su última visita al dentista fue por otro motivo en 2012 (Tasa respuesta: 48,12%)</t>
   </si>
   <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
     <t>77,15%</t>
   </si>
   <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
     <t>15,67%</t>
   </si>
   <si>
-    <t>65,87%</t>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
   </si>
   <si>
     <t>22,85%</t>
   </si>
   <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
     <t>84,33%</t>
   </si>
   <si>
-    <t>34,13%</t>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
   </si>
   <si>
     <t>3,18%</t>
@@ -343,154 +352,157 @@
     <t>0,91%</t>
   </si>
   <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
+    <t>7,79%</t>
   </si>
   <si>
     <t>3,11%</t>
   </si>
   <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
   </si>
   <si>
     <t>98,78%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
     <t>97,27%</t>
   </si>
   <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
   </si>
   <si>
     <t>1,82%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
   </si>
   <si>
     <t>1,73%</t>
@@ -502,22 +514,22 @@
     <t>2,74%</t>
   </si>
   <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
     <t>98,18%</t>
   </si>
   <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
   </si>
   <si>
     <t>98,27%</t>
@@ -538,184 +550,178 @@
     <t>43,07%</t>
   </si>
   <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
     <t>5,43%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
   </si>
   <si>
     <t>4,91%</t>
   </si>
   <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
     <t>2,42%</t>
   </si>
   <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
   </si>
   <si>
     <t>97,58%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
+    <t>95,89%</t>
   </si>
   <si>
     <t>97,52%</t>
   </si>
   <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
+    <t>96,45%</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318AA136-801C-41C2-9594-A43CE322BD00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FE93E3-A2A7-4833-93A6-C16AAC4534B7}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1296,10 +1302,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>1893</v>
+        <v>3906</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1311,10 +1317,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>3906</v>
+        <v>1893</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1347,25 +1353,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3906</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>3</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1893</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>6</v>
-      </c>
-      <c r="I6" s="7">
-        <v>3906</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1400,31 +1406,31 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>4471</v>
+        <v>1250</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>7</v>
+      </c>
+      <c r="I7" s="7">
+        <v>4471</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1250</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>27</v>
@@ -1451,10 +1457,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D8" s="7">
-        <v>75947</v>
+        <v>83085</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>31</v>
@@ -1463,22 +1469,22 @@
         <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="7">
+        <v>116</v>
+      </c>
+      <c r="I8" s="7">
+        <v>75947</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="7">
-        <v>125</v>
-      </c>
-      <c r="I8" s="7">
-        <v>83085</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="M8" s="7">
         <v>241</v>
@@ -1502,25 +1508,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>127</v>
+      </c>
+      <c r="D9" s="7">
+        <v>84335</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>123</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>80418</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>127</v>
-      </c>
-      <c r="I9" s="7">
-        <v>84335</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1555,10 +1561,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>649</v>
+        <v>1545</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>40</v>
@@ -1567,22 +1573,22 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>649</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1545</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -1591,13 +1597,13 @@
         <v>2194</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1606,31 +1612,31 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D11" s="7">
-        <v>105070</v>
+        <v>97648</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="I11" s="7">
-        <v>97648</v>
+        <v>105070</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -1642,13 +1648,13 @@
         <v>202718</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1657,25 +1663,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>148</v>
+      </c>
+      <c r="D12" s="7">
+        <v>99193</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>158</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>105719</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>148</v>
-      </c>
-      <c r="I12" s="7">
-        <v>99193</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1704,40 +1710,40 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2097</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="7">
         <v>9</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>5969</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2097</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -1746,13 +1752,13 @@
         <v>8066</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1761,34 +1767,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>238</v>
+      </c>
+      <c r="D14" s="7">
+        <v>161400</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="7">
         <v>252</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>167732</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="7">
-        <v>238</v>
-      </c>
-      <c r="I14" s="7">
-        <v>161400</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M14" s="7">
         <v>490</v>
@@ -1797,13 +1803,13 @@
         <v>329131</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1812,25 +1818,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>241</v>
+      </c>
+      <c r="D15" s="7">
+        <v>163497</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>261</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>173701</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>241</v>
-      </c>
-      <c r="I15" s="7">
-        <v>163497</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1865,34 +1871,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>7</v>
+      </c>
+      <c r="D16" s="7">
+        <v>4893</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="7">
         <v>17</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>11090</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="H16" s="7">
-        <v>7</v>
-      </c>
-      <c r="I16" s="7">
-        <v>4893</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -1901,13 +1907,13 @@
         <v>15982</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,34 +1922,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>515</v>
+      </c>
+      <c r="D17" s="7">
+        <v>346037</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="7">
         <v>528</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>350641</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H17" s="7">
-        <v>515</v>
-      </c>
-      <c r="I17" s="7">
-        <v>346037</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M17" s="7">
         <v>1043</v>
@@ -1952,13 +1958,13 @@
         <v>696679</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1967,25 +1973,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>522</v>
+      </c>
+      <c r="D18" s="7">
+        <v>350930</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>545</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>361731</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>522</v>
-      </c>
-      <c r="I18" s="7">
-        <v>350930</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2034,7 +2040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF6FD9D-5A5F-48A4-BFB9-85F9CF3D4B97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C2CC03-3B4C-4295-A00C-86057963C9C8}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2152,31 +2158,31 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>621</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>621</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>91</v>
@@ -2203,34 +2209,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2677</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="7">
         <v>1</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>669</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>4</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2677</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>96</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -2254,25 +2260,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3298</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>669</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>5</v>
-      </c>
-      <c r="I6" s="7">
-        <v>3298</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2307,10 +2313,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>2862</v>
+        <v>2279</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>99</v>
@@ -2322,10 +2328,10 @@
         <v>101</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>2279</v>
+        <v>2862</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>102</v>
@@ -2358,10 +2364,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D8" s="7">
-        <v>86998</v>
+        <v>73309</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>108</v>
@@ -2373,10 +2379,10 @@
         <v>110</v>
       </c>
       <c r="H8" s="7">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="I8" s="7">
-        <v>73309</v>
+        <v>86998</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>111</v>
@@ -2409,25 +2415,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>107</v>
+      </c>
+      <c r="D9" s="7">
+        <v>75588</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>121</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>89860</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>107</v>
-      </c>
-      <c r="I9" s="7">
-        <v>75588</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2462,31 +2468,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>2345</v>
+        <v>665</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>117</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2345</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>665</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>121</v>
@@ -2513,10 +2519,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D11" s="7">
-        <v>128630</v>
+        <v>123089</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>125</v>
@@ -2525,22 +2531,22 @@
         <v>126</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="7">
+        <v>186</v>
+      </c>
+      <c r="I11" s="7">
+        <v>128630</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H11" s="7">
-        <v>175</v>
-      </c>
-      <c r="I11" s="7">
-        <v>123089</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="M11" s="7">
         <v>361</v>
@@ -2564,25 +2570,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>176</v>
+      </c>
+      <c r="D12" s="7">
+        <v>123754</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>189</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>130975</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>176</v>
-      </c>
-      <c r="I12" s="7">
-        <v>123754</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2611,40 +2617,40 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>1369</v>
+        <v>2083</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>133</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1369</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2083</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -2653,13 +2659,13 @@
         <v>3452</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2668,34 +2674,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>202</v>
+      </c>
+      <c r="D14" s="7">
+        <v>141730</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H14" s="7">
         <v>204</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>137614</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="H14" s="7">
-        <v>202</v>
-      </c>
-      <c r="I14" s="7">
-        <v>141730</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M14" s="7">
         <v>406</v>
@@ -2704,13 +2710,13 @@
         <v>279344</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2719,25 +2725,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>205</v>
+      </c>
+      <c r="D15" s="7">
+        <v>143813</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>206</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>138983</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>205</v>
-      </c>
-      <c r="I15" s="7">
-        <v>143813</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2772,34 +2778,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5648</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" s="7">
         <v>9</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>6576</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H16" s="7">
-        <v>8</v>
-      </c>
-      <c r="I16" s="7">
-        <v>5648</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -2808,13 +2814,13 @@
         <v>12224</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2823,34 +2829,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>485</v>
+      </c>
+      <c r="D17" s="7">
+        <v>340805</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H17" s="7">
         <v>508</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>353911</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H17" s="7">
-        <v>485</v>
-      </c>
-      <c r="I17" s="7">
-        <v>340805</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M17" s="7">
         <v>993</v>
@@ -2859,13 +2865,13 @@
         <v>694716</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2874,25 +2880,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>493</v>
+      </c>
+      <c r="D18" s="7">
+        <v>346453</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>517</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>360487</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>493</v>
-      </c>
-      <c r="I18" s="7">
-        <v>346453</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2941,7 +2947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37D2B78-4DDE-40D2-8AB3-3A3298055DBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DDF629-60FD-44EF-A95B-DC7B8A401188}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2958,7 +2964,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3071,7 +3077,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>164</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3086,7 +3092,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>89</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3101,7 +3107,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,31 +3116,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>1284</v>
+        <v>536</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>536</v>
+        <v>1284</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>94</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3149,7 +3155,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3161,25 +3167,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>536</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1284</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>536</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3214,34 +3220,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2771</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H7" s="7">
         <v>6</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>4360</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H7" s="7">
-        <v>3</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2771</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -3250,13 +3256,13 @@
         <v>7131</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,34 +3271,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>97</v>
+      </c>
+      <c r="D8" s="7">
+        <v>62361</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" s="7">
         <v>109</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>75876</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H8" s="7">
-        <v>97</v>
-      </c>
-      <c r="I8" s="7">
-        <v>62361</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M8" s="7">
         <v>206</v>
@@ -3301,13 +3307,13 @@
         <v>138237</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>183</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,25 +3322,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>100</v>
+      </c>
+      <c r="D9" s="7">
+        <v>65132</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>115</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>80236</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>100</v>
-      </c>
-      <c r="I9" s="7">
-        <v>65132</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3369,34 +3375,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>1365</v>
+        <v>4590</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>184</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1365</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H10" s="7">
-        <v>7</v>
-      </c>
-      <c r="I10" s="7">
-        <v>4590</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -3405,13 +3411,13 @@
         <v>5955</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,49 +3426,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>198</v>
+      </c>
+      <c r="D11" s="7">
+        <v>138615</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H11" s="7">
         <v>197</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>142300</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="J11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="H11" s="7">
-        <v>198</v>
-      </c>
-      <c r="I11" s="7">
-        <v>138615</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M11" s="7">
         <v>395</v>
       </c>
       <c r="N11" s="7">
-        <v>280915</v>
+        <v>280916</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,25 +3477,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>205</v>
+      </c>
+      <c r="D12" s="7">
+        <v>143205</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>199</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>143665</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>205</v>
-      </c>
-      <c r="I12" s="7">
-        <v>143205</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3504,7 +3510,7 @@
         <v>404</v>
       </c>
       <c r="N12" s="7">
-        <v>286870</v>
+        <v>286871</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3518,40 +3524,40 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>2892</v>
+        <v>1481</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>43</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>200</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>1481</v>
+        <v>2892</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -3560,13 +3566,13 @@
         <v>4372</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,34 +3581,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>196</v>
+      </c>
+      <c r="D14" s="7">
+        <v>136828</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="7">
         <v>173</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>128201</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H14" s="7">
-        <v>196</v>
-      </c>
-      <c r="I14" s="7">
-        <v>136828</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>51</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>369</v>
@@ -3611,13 +3617,13 @@
         <v>265030</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,25 +3632,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>198</v>
+      </c>
+      <c r="D15" s="7">
+        <v>138309</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>177</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>131093</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>198</v>
-      </c>
-      <c r="I15" s="7">
-        <v>138309</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3682,31 +3688,31 @@
         <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>8616</v>
+        <v>8842</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>63</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
       </c>
       <c r="I16" s="7">
-        <v>8842</v>
+        <v>8616</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -3715,13 +3721,13 @@
         <v>17458</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3730,34 +3736,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>492</v>
+      </c>
+      <c r="D17" s="7">
+        <v>338340</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H17" s="7">
         <v>481</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>347662</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H17" s="7">
-        <v>492</v>
-      </c>
-      <c r="I17" s="7">
-        <v>338340</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>222</v>
+        <v>146</v>
       </c>
       <c r="M17" s="7">
         <v>973</v>
@@ -3766,13 +3772,13 @@
         <v>686002</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,25 +3787,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>504</v>
+      </c>
+      <c r="D18" s="7">
+        <v>347182</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>493</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>356278</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>504</v>
-      </c>
-      <c r="I18" s="7">
-        <v>347182</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
